--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Tfpi-Lrp1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Tfpi-Lrp1.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.19136431945977</v>
+        <v>4.183715333333334</v>
       </c>
       <c r="H2">
-        <v>2.19136431945977</v>
+        <v>12.551146</v>
       </c>
       <c r="I2">
-        <v>0.05730709389054233</v>
+        <v>0.09990620261132241</v>
       </c>
       <c r="J2">
-        <v>0.05730709389054233</v>
+        <v>0.09990620261132242</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.60517335146703</v>
+        <v>1.749051</v>
       </c>
       <c r="N2">
-        <v>1.60517335146703</v>
+        <v>5.247153000000001</v>
       </c>
       <c r="O2">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756578</v>
       </c>
       <c r="P2">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756579</v>
       </c>
       <c r="Q2">
-        <v>3.517519608952506</v>
+        <v>7.317531487482002</v>
       </c>
       <c r="R2">
-        <v>3.517519608952506</v>
+        <v>65.85778338733802</v>
       </c>
       <c r="S2">
-        <v>0.0001978568474902181</v>
+        <v>0.0003641304760368078</v>
       </c>
       <c r="T2">
-        <v>0.0001978568474902181</v>
+        <v>0.0003641304760368079</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.19136431945977</v>
+        <v>4.183715333333334</v>
       </c>
       <c r="H3">
-        <v>2.19136431945977</v>
+        <v>12.551146</v>
       </c>
       <c r="I3">
-        <v>0.05730709389054233</v>
+        <v>0.09990620261132241</v>
       </c>
       <c r="J3">
-        <v>0.05730709389054233</v>
+        <v>0.09990620261132242</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>142.435497590907</v>
+        <v>143.0355533333334</v>
       </c>
       <c r="N3">
-        <v>142.435497590907</v>
+        <v>429.10666</v>
       </c>
       <c r="O3">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="P3">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="Q3">
-        <v>312.1280672452116</v>
+        <v>598.4200376924846</v>
       </c>
       <c r="R3">
-        <v>312.1280672452116</v>
+        <v>5385.780339232361</v>
       </c>
       <c r="S3">
-        <v>0.01755688162794438</v>
+        <v>0.02977820779694524</v>
       </c>
       <c r="T3">
-        <v>0.01755688162794438</v>
+        <v>0.02977820779694525</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.19136431945977</v>
+        <v>4.183715333333334</v>
       </c>
       <c r="H4">
-        <v>2.19136431945977</v>
+        <v>12.551146</v>
       </c>
       <c r="I4">
-        <v>0.05730709389054233</v>
+        <v>0.09990620261132241</v>
       </c>
       <c r="J4">
-        <v>0.05730709389054233</v>
+        <v>0.09990620261132242</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>121.61457432652</v>
+        <v>132.804812</v>
       </c>
       <c r="N4">
-        <v>121.61457432652</v>
+        <v>398.414436</v>
       </c>
       <c r="O4">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="P4">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="Q4">
-        <v>266.5018389054241</v>
+        <v>555.6175283048507</v>
       </c>
       <c r="R4">
-        <v>266.5018389054241</v>
+        <v>5000.557754743657</v>
       </c>
       <c r="S4">
-        <v>0.01499045337571709</v>
+        <v>0.02764829579785767</v>
       </c>
       <c r="T4">
-        <v>0.01499045337571709</v>
+        <v>0.02764829579785768</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.19136431945977</v>
+        <v>4.183715333333334</v>
       </c>
       <c r="H5">
-        <v>2.19136431945977</v>
+        <v>12.551146</v>
       </c>
       <c r="I5">
-        <v>0.05730709389054233</v>
+        <v>0.09990620261132241</v>
       </c>
       <c r="J5">
-        <v>0.05730709389054233</v>
+        <v>0.09990620261132242</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>124.914087817644</v>
+        <v>125.707184</v>
       </c>
       <c r="N5">
-        <v>124.914087817644</v>
+        <v>377.121552</v>
       </c>
       <c r="O5">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="P5">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="Q5">
-        <v>273.7322750414494</v>
+        <v>525.9230732109547</v>
       </c>
       <c r="R5">
-        <v>273.7322750414494</v>
+        <v>4733.307658898592</v>
       </c>
       <c r="S5">
-        <v>0.01539715794566811</v>
+        <v>0.02617065868929299</v>
       </c>
       <c r="T5">
-        <v>0.01539715794566811</v>
+        <v>0.02617065868929299</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.19136431945977</v>
+        <v>4.183715333333334</v>
       </c>
       <c r="H6">
-        <v>2.19136431945977</v>
+        <v>12.551146</v>
       </c>
       <c r="I6">
-        <v>0.05730709389054233</v>
+        <v>0.09990620261132241</v>
       </c>
       <c r="J6">
-        <v>0.05730709389054233</v>
+        <v>0.09990620261132242</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>52.6670916009584</v>
+        <v>53.58648166666666</v>
       </c>
       <c r="N6">
-        <v>52.6670916009584</v>
+        <v>160.759445</v>
       </c>
       <c r="O6">
-        <v>0.1132817879021622</v>
+        <v>0.111665071229204</v>
       </c>
       <c r="P6">
-        <v>0.1132817879021622</v>
+        <v>0.1116650712292041</v>
       </c>
       <c r="Q6">
-        <v>115.4127853440596</v>
+        <v>224.1905850082189</v>
       </c>
       <c r="R6">
-        <v>115.4127853440596</v>
+        <v>2017.71526507397</v>
       </c>
       <c r="S6">
-        <v>0.006491850055397712</v>
+        <v>0.01115603323083261</v>
       </c>
       <c r="T6">
-        <v>0.006491850055397712</v>
+        <v>0.01115603323083261</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.19136431945977</v>
+        <v>4.183715333333334</v>
       </c>
       <c r="H7">
-        <v>2.19136431945977</v>
+        <v>12.551146</v>
       </c>
       <c r="I7">
-        <v>0.05730709389054233</v>
+        <v>0.09990620261132241</v>
       </c>
       <c r="J7">
-        <v>0.05730709389054233</v>
+        <v>0.09990620261132242</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>21.6846590655712</v>
+        <v>23.00271466666667</v>
       </c>
       <c r="N7">
-        <v>21.6846590655712</v>
+        <v>69.008144</v>
       </c>
       <c r="O7">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759353</v>
       </c>
       <c r="P7">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759355</v>
       </c>
       <c r="Q7">
-        <v>47.51898815594256</v>
+        <v>96.23681005922489</v>
       </c>
       <c r="R7">
-        <v>47.51898815594256</v>
+        <v>866.1312905330241</v>
       </c>
       <c r="S7">
-        <v>0.002672894038324819</v>
+        <v>0.004788876620357092</v>
       </c>
       <c r="T7">
-        <v>0.002672894038324819</v>
+        <v>0.004788876620357094</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>23.9239694772348</v>
+        <v>24.19016733333333</v>
       </c>
       <c r="H8">
-        <v>23.9239694772348</v>
+        <v>72.570502</v>
       </c>
       <c r="I8">
-        <v>0.6256436471523618</v>
+        <v>0.5776558791059699</v>
       </c>
       <c r="J8">
-        <v>0.6256436471523618</v>
+        <v>0.57765587910597</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.60517335146703</v>
+        <v>1.749051</v>
       </c>
       <c r="N8">
-        <v>1.60517335146703</v>
+        <v>5.247153000000001</v>
       </c>
       <c r="O8">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756578</v>
       </c>
       <c r="P8">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756579</v>
       </c>
       <c r="Q8">
-        <v>38.40211826616792</v>
+        <v>42.30983636453401</v>
       </c>
       <c r="R8">
-        <v>38.40211826616792</v>
+        <v>380.7885272808061</v>
       </c>
       <c r="S8">
-        <v>0.002160079516757313</v>
+        <v>0.00210539590882698</v>
       </c>
       <c r="T8">
-        <v>0.002160079516757313</v>
+        <v>0.002105395908826981</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>23.9239694772348</v>
+        <v>24.19016733333333</v>
       </c>
       <c r="H9">
-        <v>23.9239694772348</v>
+        <v>72.570502</v>
       </c>
       <c r="I9">
-        <v>0.6256436471523618</v>
+        <v>0.5776558791059699</v>
       </c>
       <c r="J9">
-        <v>0.6256436471523618</v>
+        <v>0.57765587910597</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>142.435497590907</v>
+        <v>143.0355533333334</v>
       </c>
       <c r="N9">
-        <v>142.435497590907</v>
+        <v>429.10666</v>
       </c>
       <c r="O9">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="P9">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="Q9">
-        <v>3407.62249683961</v>
+        <v>3460.053969749259</v>
       </c>
       <c r="R9">
-        <v>3407.62249683961</v>
+        <v>31140.48572774333</v>
       </c>
       <c r="S9">
-        <v>0.1916752483612193</v>
+        <v>0.1721770656229025</v>
       </c>
       <c r="T9">
-        <v>0.1916752483612193</v>
+        <v>0.1721770656229026</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>23.9239694772348</v>
+        <v>24.19016733333333</v>
       </c>
       <c r="H10">
-        <v>23.9239694772348</v>
+        <v>72.570502</v>
       </c>
       <c r="I10">
-        <v>0.6256436471523618</v>
+        <v>0.5776558791059699</v>
       </c>
       <c r="J10">
-        <v>0.6256436471523618</v>
+        <v>0.57765587910597</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>121.61457432652</v>
+        <v>132.804812</v>
       </c>
       <c r="N10">
-        <v>121.61457432652</v>
+        <v>398.414436</v>
       </c>
       <c r="O10">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="P10">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="Q10">
-        <v>2909.503364174567</v>
+        <v>3212.570624951875</v>
       </c>
       <c r="R10">
-        <v>2909.503364174567</v>
+        <v>28913.13562456688</v>
       </c>
       <c r="S10">
-        <v>0.1636565612690907</v>
+        <v>0.1598619524858544</v>
       </c>
       <c r="T10">
-        <v>0.1636565612690907</v>
+        <v>0.1598619524858545</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>23.9239694772348</v>
+        <v>24.19016733333333</v>
       </c>
       <c r="H11">
-        <v>23.9239694772348</v>
+        <v>72.570502</v>
       </c>
       <c r="I11">
-        <v>0.6256436471523618</v>
+        <v>0.5776558791059699</v>
       </c>
       <c r="J11">
-        <v>0.6256436471523618</v>
+        <v>0.57765587910597</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>124.914087817644</v>
+        <v>125.707184</v>
       </c>
       <c r="N11">
-        <v>124.914087817644</v>
+        <v>377.121552</v>
       </c>
       <c r="O11">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="P11">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="Q11">
-        <v>2988.440824225942</v>
+        <v>3040.877815962123</v>
       </c>
       <c r="R11">
-        <v>2988.440824225942</v>
+        <v>27367.9003436591</v>
       </c>
       <c r="S11">
-        <v>0.1680967119238019</v>
+        <v>0.1513182811157367</v>
       </c>
       <c r="T11">
-        <v>0.1680967119238019</v>
+        <v>0.1513182811157367</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>23.9239694772348</v>
+        <v>24.19016733333333</v>
       </c>
       <c r="H12">
-        <v>23.9239694772348</v>
+        <v>72.570502</v>
       </c>
       <c r="I12">
-        <v>0.6256436471523618</v>
+        <v>0.5776558791059699</v>
       </c>
       <c r="J12">
-        <v>0.6256436471523618</v>
+        <v>0.57765587910597</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>52.6670916009584</v>
+        <v>53.58648166666666</v>
       </c>
       <c r="N12">
-        <v>52.6670916009584</v>
+        <v>160.759445</v>
       </c>
       <c r="O12">
-        <v>0.1132817879021622</v>
+        <v>0.111665071229204</v>
       </c>
       <c r="P12">
-        <v>0.1132817879021622</v>
+        <v>0.1116650712292041</v>
       </c>
       <c r="Q12">
-        <v>1260.005891916058</v>
+        <v>1296.265958321266</v>
       </c>
       <c r="R12">
-        <v>1260.005891916058</v>
+        <v>11666.39362489139</v>
       </c>
       <c r="S12">
-        <v>0.07087403093904905</v>
+        <v>0.06450398488633662</v>
       </c>
       <c r="T12">
-        <v>0.07087403093904905</v>
+        <v>0.06450398488633664</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>23.9239694772348</v>
+        <v>24.19016733333333</v>
       </c>
       <c r="H13">
-        <v>23.9239694772348</v>
+        <v>72.570502</v>
       </c>
       <c r="I13">
-        <v>0.6256436471523618</v>
+        <v>0.5776558791059699</v>
       </c>
       <c r="J13">
-        <v>0.6256436471523618</v>
+        <v>0.57765587910597</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>21.6846590655712</v>
+        <v>23.00271466666667</v>
       </c>
       <c r="N13">
-        <v>21.6846590655712</v>
+        <v>69.008144</v>
       </c>
       <c r="O13">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759353</v>
       </c>
       <c r="P13">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759355</v>
       </c>
       <c r="Q13">
-        <v>518.7831216089683</v>
+        <v>556.4395169075876</v>
       </c>
       <c r="R13">
-        <v>518.7831216089683</v>
+        <v>5007.955652168288</v>
       </c>
       <c r="S13">
-        <v>0.02918101514244346</v>
+        <v>0.02768919908631273</v>
       </c>
       <c r="T13">
-        <v>0.02918101514244346</v>
+        <v>0.02768919908631274</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.12067597169878</v>
+        <v>2.794139333333333</v>
       </c>
       <c r="H14">
-        <v>2.12067597169878</v>
+        <v>8.382417999999999</v>
       </c>
       <c r="I14">
-        <v>0.05545849950295779</v>
+        <v>0.06672343314951447</v>
       </c>
       <c r="J14">
-        <v>0.05545849950295779</v>
+        <v>0.06672343314951447</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.60517335146703</v>
+        <v>1.749051</v>
       </c>
       <c r="N14">
-        <v>1.60517335146703</v>
+        <v>5.247153000000001</v>
       </c>
       <c r="O14">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756578</v>
       </c>
       <c r="P14">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756579</v>
       </c>
       <c r="Q14">
-        <v>3.404052556867331</v>
+        <v>4.887092195106001</v>
       </c>
       <c r="R14">
-        <v>3.404052556867331</v>
+        <v>43.98382975595401</v>
       </c>
       <c r="S14">
-        <v>0.0001914744429223963</v>
+        <v>0.0002431884591797041</v>
       </c>
       <c r="T14">
-        <v>0.0001914744429223963</v>
+        <v>0.0002431884591797041</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.12067597169878</v>
+        <v>2.794139333333333</v>
       </c>
       <c r="H15">
-        <v>2.12067597169878</v>
+        <v>8.382417999999999</v>
       </c>
       <c r="I15">
-        <v>0.05545849950295779</v>
+        <v>0.06672343314951447</v>
       </c>
       <c r="J15">
-        <v>0.05545849950295779</v>
+        <v>0.06672343314951447</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>142.435497590907</v>
+        <v>143.0355533333334</v>
       </c>
       <c r="N15">
-        <v>142.435497590907</v>
+        <v>429.10666</v>
       </c>
       <c r="O15">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="P15">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="Q15">
-        <v>302.0595372579959</v>
+        <v>399.6612656337645</v>
       </c>
       <c r="R15">
-        <v>302.0595372579959</v>
+        <v>3596.95139070388</v>
       </c>
       <c r="S15">
-        <v>0.01699053720812622</v>
+        <v>0.0198876967127029</v>
       </c>
       <c r="T15">
-        <v>0.01699053720812622</v>
+        <v>0.0198876967127029</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.12067597169878</v>
+        <v>2.794139333333333</v>
       </c>
       <c r="H16">
-        <v>2.12067597169878</v>
+        <v>8.382417999999999</v>
       </c>
       <c r="I16">
-        <v>0.05545849950295779</v>
+        <v>0.06672343314951447</v>
       </c>
       <c r="J16">
-        <v>0.05545849950295779</v>
+        <v>0.06672343314951447</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>121.61457432652</v>
+        <v>132.804812</v>
       </c>
       <c r="N16">
-        <v>121.61457432652</v>
+        <v>398.414436</v>
       </c>
       <c r="O16">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="P16">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="Q16">
-        <v>257.9051055826263</v>
+        <v>371.0751488651387</v>
       </c>
       <c r="R16">
-        <v>257.9051055826263</v>
+        <v>3339.676339786248</v>
       </c>
       <c r="S16">
-        <v>0.01450689599919705</v>
+        <v>0.01846521205038062</v>
       </c>
       <c r="T16">
-        <v>0.01450689599919705</v>
+        <v>0.01846521205038062</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.12067597169878</v>
+        <v>2.794139333333333</v>
       </c>
       <c r="H17">
-        <v>2.12067597169878</v>
+        <v>8.382417999999999</v>
       </c>
       <c r="I17">
-        <v>0.05545849950295779</v>
+        <v>0.06672343314951447</v>
       </c>
       <c r="J17">
-        <v>0.05545849950295779</v>
+        <v>0.06672343314951447</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>124.914087817644</v>
+        <v>125.707184</v>
       </c>
       <c r="N17">
-        <v>124.914087817644</v>
+        <v>377.121552</v>
       </c>
       <c r="O17">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="P17">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="Q17">
-        <v>264.9023045615489</v>
+        <v>351.2433872969706</v>
       </c>
       <c r="R17">
-        <v>264.9023045615489</v>
+        <v>3161.190485672736</v>
       </c>
       <c r="S17">
-        <v>0.01490048121979051</v>
+        <v>0.01747835619703459</v>
       </c>
       <c r="T17">
-        <v>0.01490048121979051</v>
+        <v>0.01747835619703459</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.12067597169878</v>
+        <v>2.794139333333333</v>
       </c>
       <c r="H18">
-        <v>2.12067597169878</v>
+        <v>8.382417999999999</v>
       </c>
       <c r="I18">
-        <v>0.05545849950295779</v>
+        <v>0.06672343314951447</v>
       </c>
       <c r="J18">
-        <v>0.05545849950295779</v>
+        <v>0.06672343314951447</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>52.6670916009584</v>
+        <v>53.58648166666666</v>
       </c>
       <c r="N18">
-        <v>52.6670916009584</v>
+        <v>160.759445</v>
       </c>
       <c r="O18">
-        <v>0.1132817879021622</v>
+        <v>0.111665071229204</v>
       </c>
       <c r="P18">
-        <v>0.1132817879021622</v>
+        <v>0.1116650712292041</v>
       </c>
       <c r="Q18">
-        <v>111.6898356574111</v>
+        <v>149.7280961597789</v>
       </c>
       <c r="R18">
-        <v>111.6898356574111</v>
+        <v>1347.55286543801</v>
       </c>
       <c r="S18">
-        <v>0.006282437978066232</v>
+        <v>0.007450676915297568</v>
       </c>
       <c r="T18">
-        <v>0.006282437978066232</v>
+        <v>0.007450676915297568</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.12067597169878</v>
+        <v>2.794139333333333</v>
       </c>
       <c r="H19">
-        <v>2.12067597169878</v>
+        <v>8.382417999999999</v>
       </c>
       <c r="I19">
-        <v>0.05545849950295779</v>
+        <v>0.06672343314951447</v>
       </c>
       <c r="J19">
-        <v>0.05545849950295779</v>
+        <v>0.06672343314951447</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>21.6846590655712</v>
+        <v>23.00271466666667</v>
       </c>
       <c r="N19">
-        <v>21.6846590655712</v>
+        <v>69.008144</v>
       </c>
       <c r="O19">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759353</v>
       </c>
       <c r="P19">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759355</v>
       </c>
       <c r="Q19">
-        <v>45.98613543483696</v>
+        <v>64.27278982357689</v>
       </c>
       <c r="R19">
-        <v>45.98613543483696</v>
+        <v>578.455108412192</v>
       </c>
       <c r="S19">
-        <v>0.002586672654855383</v>
+        <v>0.003198302814919088</v>
       </c>
       <c r="T19">
-        <v>0.002586672654855383</v>
+        <v>0.003198302814919089</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3.86242665804621</v>
+        <v>4.385361333333333</v>
       </c>
       <c r="H20">
-        <v>3.86242665804621</v>
+        <v>13.156084</v>
       </c>
       <c r="I20">
-        <v>0.1010075984045205</v>
+        <v>0.1047214647710717</v>
       </c>
       <c r="J20">
-        <v>0.1010075984045205</v>
+        <v>0.1047214647710717</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.60517335146703</v>
+        <v>1.749051</v>
       </c>
       <c r="N20">
-        <v>1.60517335146703</v>
+        <v>5.247153000000001</v>
       </c>
       <c r="O20">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756578</v>
       </c>
       <c r="P20">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756579</v>
       </c>
       <c r="Q20">
-        <v>6.199864343491636</v>
+        <v>7.670220625428001</v>
       </c>
       <c r="R20">
-        <v>6.199864343491636</v>
+        <v>69.03198562885201</v>
       </c>
       <c r="S20">
-        <v>0.0003487359702979919</v>
+        <v>0.0003816807747834525</v>
       </c>
       <c r="T20">
-        <v>0.0003487359702979919</v>
+        <v>0.0003816807747834525</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>3.86242665804621</v>
+        <v>4.385361333333333</v>
       </c>
       <c r="H21">
-        <v>3.86242665804621</v>
+        <v>13.156084</v>
       </c>
       <c r="I21">
-        <v>0.1010075984045205</v>
+        <v>0.1047214647710717</v>
       </c>
       <c r="J21">
-        <v>0.1010075984045205</v>
+        <v>0.1047214647710717</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>142.435497590907</v>
+        <v>143.0355533333334</v>
       </c>
       <c r="N21">
-        <v>142.435497590907</v>
+        <v>429.10666</v>
       </c>
       <c r="O21">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="P21">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="Q21">
-        <v>550.146662947196</v>
+        <v>627.2625848799378</v>
       </c>
       <c r="R21">
-        <v>550.146662947196</v>
+        <v>5645.36326391944</v>
       </c>
       <c r="S21">
-        <v>0.03094518197168221</v>
+        <v>0.03121345279116875</v>
       </c>
       <c r="T21">
-        <v>0.03094518197168221</v>
+        <v>0.03121345279116876</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>3.86242665804621</v>
+        <v>4.385361333333333</v>
       </c>
       <c r="H22">
-        <v>3.86242665804621</v>
+        <v>13.156084</v>
       </c>
       <c r="I22">
-        <v>0.1010075984045205</v>
+        <v>0.1047214647710717</v>
       </c>
       <c r="J22">
-        <v>0.1010075984045205</v>
+        <v>0.1047214647710717</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>121.61457432652</v>
+        <v>132.804812</v>
       </c>
       <c r="N22">
-        <v>121.61457432652</v>
+        <v>398.414436</v>
       </c>
       <c r="O22">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="P22">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="Q22">
-        <v>469.7273738856931</v>
+        <v>582.3970874254026</v>
       </c>
       <c r="R22">
-        <v>469.7273738856931</v>
+        <v>5241.573786828624</v>
       </c>
       <c r="S22">
-        <v>0.02642167996458128</v>
+        <v>0.02898088365584007</v>
       </c>
       <c r="T22">
-        <v>0.02642167996458128</v>
+        <v>0.02898088365584008</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>3.86242665804621</v>
+        <v>4.385361333333333</v>
       </c>
       <c r="H23">
-        <v>3.86242665804621</v>
+        <v>13.156084</v>
       </c>
       <c r="I23">
-        <v>0.1010075984045205</v>
+        <v>0.1047214647710717</v>
       </c>
       <c r="J23">
-        <v>0.1010075984045205</v>
+        <v>0.1047214647710717</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>124.914087817644</v>
+        <v>125.707184</v>
       </c>
       <c r="N23">
-        <v>124.914087817644</v>
+        <v>377.121552</v>
       </c>
       <c r="O23">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="P23">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="Q23">
-        <v>482.4715027523935</v>
+        <v>551.2714240358187</v>
       </c>
       <c r="R23">
-        <v>482.4715027523935</v>
+        <v>4961.442816322368</v>
       </c>
       <c r="S23">
-        <v>0.02713852405982296</v>
+        <v>0.02743202764525792</v>
       </c>
       <c r="T23">
-        <v>0.02713852405982296</v>
+        <v>0.02743202764525792</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>3.86242665804621</v>
+        <v>4.385361333333333</v>
       </c>
       <c r="H24">
-        <v>3.86242665804621</v>
+        <v>13.156084</v>
       </c>
       <c r="I24">
-        <v>0.1010075984045205</v>
+        <v>0.1047214647710717</v>
       </c>
       <c r="J24">
-        <v>0.1010075984045205</v>
+        <v>0.1047214647710717</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>52.6670916009584</v>
+        <v>53.58648166666666</v>
       </c>
       <c r="N24">
-        <v>52.6670916009584</v>
+        <v>160.759445</v>
       </c>
       <c r="O24">
-        <v>0.1132817879021622</v>
+        <v>0.111665071229204</v>
       </c>
       <c r="P24">
-        <v>0.1132817879021622</v>
+        <v>0.1116650712292041</v>
       </c>
       <c r="Q24">
-        <v>203.4227786013034</v>
+        <v>234.9960846903755</v>
       </c>
       <c r="R24">
-        <v>203.4227786013034</v>
+        <v>2114.96476221338</v>
       </c>
       <c r="S24">
-        <v>0.01144232133896767</v>
+        <v>0.0116937298228883</v>
       </c>
       <c r="T24">
-        <v>0.01144232133896767</v>
+        <v>0.0116937298228883</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>3.86242665804621</v>
+        <v>4.385361333333333</v>
       </c>
       <c r="H25">
-        <v>3.86242665804621</v>
+        <v>13.156084</v>
       </c>
       <c r="I25">
-        <v>0.1010075984045205</v>
+        <v>0.1047214647710717</v>
       </c>
       <c r="J25">
-        <v>0.1010075984045205</v>
+        <v>0.1047214647710717</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>21.6846590655712</v>
+        <v>23.00271466666667</v>
       </c>
       <c r="N25">
-        <v>21.6846590655712</v>
+        <v>69.008144</v>
       </c>
       <c r="O25">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759353</v>
       </c>
       <c r="P25">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759355</v>
       </c>
       <c r="Q25">
-        <v>83.75540524550563</v>
+        <v>100.8752154608995</v>
       </c>
       <c r="R25">
-        <v>83.75540524550563</v>
+        <v>907.876939148096</v>
       </c>
       <c r="S25">
-        <v>0.004711155099168394</v>
+        <v>0.00501969008113315</v>
       </c>
       <c r="T25">
-        <v>0.004711155099168394</v>
+        <v>0.005019690081133152</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>1.22262538820032</v>
+        <v>1.286464333333333</v>
       </c>
       <c r="H26">
-        <v>1.22262538820032</v>
+        <v>3.859393</v>
       </c>
       <c r="I26">
-        <v>0.03197328134457781</v>
+        <v>0.03072048552496477</v>
       </c>
       <c r="J26">
-        <v>0.03197328134457781</v>
+        <v>0.03072048552496477</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.60517335146703</v>
+        <v>1.749051</v>
       </c>
       <c r="N26">
-        <v>1.60517335146703</v>
+        <v>5.247153000000001</v>
       </c>
       <c r="O26">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756578</v>
       </c>
       <c r="P26">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756579</v>
       </c>
       <c r="Q26">
-        <v>1.962525691966186</v>
+        <v>2.250091728681001</v>
       </c>
       <c r="R26">
-        <v>1.962525691966186</v>
+        <v>20.25082555812901</v>
       </c>
       <c r="S26">
-        <v>0.0001103900446049315</v>
+        <v>0.0001119676729362501</v>
       </c>
       <c r="T26">
-        <v>0.0001103900446049315</v>
+        <v>0.0001119676729362501</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>1.22262538820032</v>
+        <v>1.286464333333333</v>
       </c>
       <c r="H27">
-        <v>1.22262538820032</v>
+        <v>3.859393</v>
       </c>
       <c r="I27">
-        <v>0.03197328134457781</v>
+        <v>0.03072048552496477</v>
       </c>
       <c r="J27">
-        <v>0.03197328134457781</v>
+        <v>0.03072048552496477</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>142.435497590907</v>
+        <v>143.0355533333334</v>
       </c>
       <c r="N27">
-        <v>142.435497590907</v>
+        <v>429.10666</v>
       </c>
       <c r="O27">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="P27">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="Q27">
-        <v>174.1452555355884</v>
+        <v>184.0101377619312</v>
       </c>
       <c r="R27">
-        <v>174.1452555355884</v>
+        <v>1656.09123985738</v>
       </c>
       <c r="S27">
-        <v>0.009795490884530047</v>
+        <v>0.009156598666295167</v>
       </c>
       <c r="T27">
-        <v>0.009795490884530047</v>
+        <v>0.009156598666295167</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>1.22262538820032</v>
+        <v>1.286464333333333</v>
       </c>
       <c r="H28">
-        <v>1.22262538820032</v>
+        <v>3.859393</v>
       </c>
       <c r="I28">
-        <v>0.03197328134457781</v>
+        <v>0.03072048552496477</v>
       </c>
       <c r="J28">
-        <v>0.03197328134457781</v>
+        <v>0.03072048552496477</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>121.61457432652</v>
+        <v>132.804812</v>
       </c>
       <c r="N28">
-        <v>121.61457432652</v>
+        <v>398.414436</v>
       </c>
       <c r="O28">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="P28">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="Q28">
-        <v>148.6890661467782</v>
+        <v>170.8486539330387</v>
       </c>
       <c r="R28">
-        <v>148.6890661467782</v>
+        <v>1537.637885397348</v>
       </c>
       <c r="S28">
-        <v>0.008363606505331427</v>
+        <v>0.00850166504828972</v>
       </c>
       <c r="T28">
-        <v>0.008363606505331427</v>
+        <v>0.008501665048289721</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>1.22262538820032</v>
+        <v>1.286464333333333</v>
       </c>
       <c r="H29">
-        <v>1.22262538820032</v>
+        <v>3.859393</v>
       </c>
       <c r="I29">
-        <v>0.03197328134457781</v>
+        <v>0.03072048552496477</v>
       </c>
       <c r="J29">
-        <v>0.03197328134457781</v>
+        <v>0.03072048552496477</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>124.914087817644</v>
+        <v>125.707184</v>
       </c>
       <c r="N29">
-        <v>124.914087817644</v>
+        <v>377.121552</v>
       </c>
       <c r="O29">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="P29">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="Q29">
-        <v>152.7231351097359</v>
+        <v>161.7178086597707</v>
       </c>
       <c r="R29">
-        <v>152.7231351097359</v>
+        <v>1455.460277937936</v>
       </c>
       <c r="S29">
-        <v>0.008590518720841897</v>
+        <v>0.008047301573166828</v>
       </c>
       <c r="T29">
-        <v>0.008590518720841897</v>
+        <v>0.008047301573166828</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>1.22262538820032</v>
+        <v>1.286464333333333</v>
       </c>
       <c r="H30">
-        <v>1.22262538820032</v>
+        <v>3.859393</v>
       </c>
       <c r="I30">
-        <v>0.03197328134457781</v>
+        <v>0.03072048552496477</v>
       </c>
       <c r="J30">
-        <v>0.03197328134457781</v>
+        <v>0.03072048552496477</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>52.6670916009584</v>
+        <v>53.58648166666666</v>
       </c>
       <c r="N30">
-        <v>52.6670916009584</v>
+        <v>160.759445</v>
       </c>
       <c r="O30">
-        <v>0.1132817879021622</v>
+        <v>0.111665071229204</v>
       </c>
       <c r="P30">
-        <v>0.1132817879021622</v>
+        <v>0.1116650712292041</v>
       </c>
       <c r="Q30">
-        <v>64.39212331400357</v>
+        <v>68.93709741298723</v>
       </c>
       <c r="R30">
-        <v>64.39212331400357</v>
+        <v>620.433876716885</v>
       </c>
       <c r="S30">
-        <v>0.003621990475812623</v>
+        <v>0.003430405204340923</v>
       </c>
       <c r="T30">
-        <v>0.003621990475812623</v>
+        <v>0.003430405204340924</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>1.22262538820032</v>
+        <v>1.286464333333333</v>
       </c>
       <c r="H31">
-        <v>1.22262538820032</v>
+        <v>3.859393</v>
       </c>
       <c r="I31">
-        <v>0.03197328134457781</v>
+        <v>0.03072048552496477</v>
       </c>
       <c r="J31">
-        <v>0.03197328134457781</v>
+        <v>0.03072048552496477</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>21.6846590655712</v>
+        <v>23.00271466666667</v>
       </c>
       <c r="N31">
-        <v>21.6846590655712</v>
+        <v>69.008144</v>
       </c>
       <c r="O31">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759353</v>
       </c>
       <c r="P31">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759355</v>
       </c>
       <c r="Q31">
-        <v>26.51221470803558</v>
+        <v>29.59217198851022</v>
       </c>
       <c r="R31">
-        <v>26.51221470803558</v>
+        <v>266.329547896592</v>
       </c>
       <c r="S31">
-        <v>0.001491284713456885</v>
+        <v>0.001472547359935883</v>
       </c>
       <c r="T31">
-        <v>0.001491284713456885</v>
+        <v>0.001472547359935884</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>4.91790950094138</v>
+        <v>5.036584666666667</v>
       </c>
       <c r="H32">
-        <v>4.91790950094138</v>
+        <v>15.109754</v>
       </c>
       <c r="I32">
-        <v>0.12860987970504</v>
+        <v>0.1202725348371566</v>
       </c>
       <c r="J32">
-        <v>0.12860987970504</v>
+        <v>0.1202725348371566</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>1.60517335146703</v>
+        <v>1.749051</v>
       </c>
       <c r="N32">
-        <v>1.60517335146703</v>
+        <v>5.247153000000001</v>
       </c>
       <c r="O32">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756578</v>
       </c>
       <c r="P32">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756579</v>
       </c>
       <c r="Q32">
-        <v>7.894097275837624</v>
+        <v>8.809243447818004</v>
       </c>
       <c r="R32">
-        <v>7.894097275837624</v>
+        <v>79.28319103036202</v>
       </c>
       <c r="S32">
-        <v>0.000444034824085451</v>
+        <v>0.0004383601239933836</v>
       </c>
       <c r="T32">
-        <v>0.000444034824085451</v>
+        <v>0.0004383601239933837</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>4.91790950094138</v>
+        <v>5.036584666666667</v>
       </c>
       <c r="H33">
-        <v>4.91790950094138</v>
+        <v>15.109754</v>
       </c>
       <c r="I33">
-        <v>0.12860987970504</v>
+        <v>0.1202725348371566</v>
       </c>
       <c r="J33">
-        <v>0.12860987970504</v>
+        <v>0.1202725348371566</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>142.435497590907</v>
+        <v>143.0355533333334</v>
       </c>
       <c r="N33">
-        <v>142.435497590907</v>
+        <v>429.10666</v>
       </c>
       <c r="O33">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="P33">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="Q33">
-        <v>700.4848868736345</v>
+        <v>720.410674706849</v>
       </c>
       <c r="R33">
-        <v>700.4848868736345</v>
+        <v>6483.696072361641</v>
       </c>
       <c r="S33">
-        <v>0.03940155189998563</v>
+        <v>0.03584863042567783</v>
       </c>
       <c r="T33">
-        <v>0.03940155189998563</v>
+        <v>0.03584863042567783</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>4.91790950094138</v>
+        <v>5.036584666666667</v>
       </c>
       <c r="H34">
-        <v>4.91790950094138</v>
+        <v>15.109754</v>
       </c>
       <c r="I34">
-        <v>0.12860987970504</v>
+        <v>0.1202725348371566</v>
       </c>
       <c r="J34">
-        <v>0.12860987970504</v>
+        <v>0.1202725348371566</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>121.61457432652</v>
+        <v>132.804812</v>
       </c>
       <c r="N34">
-        <v>121.61457432652</v>
+        <v>398.414436</v>
       </c>
       <c r="O34">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="P34">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="Q34">
-        <v>598.0894705333343</v>
+        <v>668.8826797787494</v>
       </c>
       <c r="R34">
-        <v>598.0894705333343</v>
+        <v>6019.944118008744</v>
       </c>
       <c r="S34">
-        <v>0.03364191541552169</v>
+        <v>0.03328452621177884</v>
       </c>
       <c r="T34">
-        <v>0.03364191541552169</v>
+        <v>0.03328452621177885</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>4.91790950094138</v>
+        <v>5.036584666666667</v>
       </c>
       <c r="H35">
-        <v>4.91790950094138</v>
+        <v>15.109754</v>
       </c>
       <c r="I35">
-        <v>0.12860987970504</v>
+        <v>0.1202725348371566</v>
       </c>
       <c r="J35">
-        <v>0.12860987970504</v>
+        <v>0.1202725348371566</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>124.914087817644</v>
+        <v>125.707184</v>
       </c>
       <c r="N35">
-        <v>124.914087817644</v>
+        <v>377.121552</v>
       </c>
       <c r="O35">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="P35">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="Q35">
-        <v>614.3161792798173</v>
+        <v>633.1348754242454</v>
       </c>
       <c r="R35">
-        <v>614.3161792798173</v>
+        <v>5698.213878818208</v>
       </c>
       <c r="S35">
-        <v>0.03455465103454989</v>
+        <v>0.03150566608126298</v>
       </c>
       <c r="T35">
-        <v>0.03455465103454989</v>
+        <v>0.03150566608126298</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>4.91790950094138</v>
+        <v>5.036584666666667</v>
       </c>
       <c r="H36">
-        <v>4.91790950094138</v>
+        <v>15.109754</v>
       </c>
       <c r="I36">
-        <v>0.12860987970504</v>
+        <v>0.1202725348371566</v>
       </c>
       <c r="J36">
-        <v>0.12860987970504</v>
+        <v>0.1202725348371566</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>52.6670916009584</v>
+        <v>53.58648166666666</v>
       </c>
       <c r="N36">
-        <v>52.6670916009584</v>
+        <v>160.759445</v>
       </c>
       <c r="O36">
-        <v>0.1132817879021622</v>
+        <v>0.111665071229204</v>
       </c>
       <c r="P36">
-        <v>0.1132817879021622</v>
+        <v>0.1116650712292041</v>
       </c>
       <c r="Q36">
-        <v>259.0119901713032</v>
+        <v>269.8928519029478</v>
       </c>
       <c r="R36">
-        <v>259.0119901713032</v>
+        <v>2429.03566712653</v>
       </c>
       <c r="S36">
-        <v>0.01456915711486893</v>
+        <v>0.01343024116950802</v>
       </c>
       <c r="T36">
-        <v>0.01456915711486893</v>
+        <v>0.01343024116950802</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>4.91790950094138</v>
+        <v>5.036584666666667</v>
       </c>
       <c r="H37">
-        <v>4.91790950094138</v>
+        <v>15.109754</v>
       </c>
       <c r="I37">
-        <v>0.12860987970504</v>
+        <v>0.1202725348371566</v>
       </c>
       <c r="J37">
-        <v>0.12860987970504</v>
+        <v>0.1202725348371566</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>21.6846590655712</v>
+        <v>23.00271466666667</v>
       </c>
       <c r="N37">
-        <v>21.6846590655712</v>
+        <v>69.008144</v>
       </c>
       <c r="O37">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759353</v>
       </c>
       <c r="P37">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759355</v>
       </c>
       <c r="Q37">
-        <v>106.6431908432472</v>
+        <v>115.8551199818418</v>
       </c>
       <c r="R37">
-        <v>106.6431908432472</v>
+        <v>1042.696079836576</v>
       </c>
       <c r="S37">
-        <v>0.005998569416028371</v>
+        <v>0.005765110824935592</v>
       </c>
       <c r="T37">
-        <v>0.005998569416028371</v>
+        <v>0.005765110824935594</v>
       </c>
     </row>
   </sheetData>
